--- a/tut05/output/0501EE34.xlsx
+++ b/tut05/output/0501EE34.xlsx
@@ -550,28 +550,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.428571428571429</v>
+        <v>8.43</v>
       </c>
       <c r="C6" t="n">
-        <v>8.681818181818182</v>
+        <v>8.68</v>
       </c>
       <c r="D6" t="n">
-        <v>8.608695652173912</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>9.130434782608695</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>9.076923076923077</v>
+        <v>9.08</v>
       </c>
       <c r="G6" t="n">
         <v>7.6</v>
       </c>
       <c r="H6" t="n">
-        <v>8.720930232558139</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>6.947368421052632</v>
+        <v>6.95</v>
       </c>
     </row>
     <row r="7">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.428571428571429</v>
+        <v>8.43</v>
       </c>
       <c r="C8" t="n">
-        <v>8.548387096774194</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>8.568345323741006</v>
+        <v>8.57</v>
       </c>
       <c r="E8" t="n">
-        <v>8.708108108108108</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>8.772321428571429</v>
+        <v>8.77</v>
       </c>
       <c r="G8" t="n">
-        <v>8.594696969696969</v>
+        <v>8.59</v>
       </c>
       <c r="H8" t="n">
-        <v>8.612377850162867</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>8.428985507246377</v>
+        <v>8.43</v>
       </c>
     </row>
   </sheetData>
